--- a/docs/Métricas de Chidamber & Kemerer e Lorenz & Kidd.xlsx
+++ b/docs/Métricas de Chidamber & Kemerer e Lorenz & Kidd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charleston Campos\git\ProjetoSpring\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos\ProjetoSpring\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -450,7 +450,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,12 +460,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +493,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -527,18 +533,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A18" sqref="A18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,7 +838,7 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -856,59 +864,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="C3" s="10">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0</v>
+      </c>
+      <c r="E3" s="10">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="10">
         <v>22</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="10">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="10">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
         <v>20</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -934,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -986,33 +994,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="10">
         <v>16</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="C8" s="10">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0</v>
+      </c>
+      <c r="E8" s="10">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="10">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1064,8 +1073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="1">
@@ -1090,8 +1099,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="1">
@@ -1116,8 +1125,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="1">
@@ -1142,8 +1151,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1">
@@ -1168,8 +1177,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1">
@@ -1194,8 +1203,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="1">
@@ -1221,7 +1230,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="1">
@@ -1247,33 +1256,33 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0</v>
+      </c>
+      <c r="F18" s="12">
         <v>5</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
@@ -1299,7 +1308,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="1">
@@ -1325,7 +1334,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="1">
@@ -1351,7 +1360,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B22" s="1">
@@ -1423,24 +1432,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1478,57 +1487,57 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1555,13 +1564,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1577,79 +1586,79 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1660,7 +1669,7 @@
       <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1742,79 +1751,79 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1825,7 +1834,7 @@
       <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>3</v>
       </c>
     </row>
@@ -1836,7 +1845,7 @@
       <c r="B39" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1847,7 +1856,7 @@
       <c r="B40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1858,7 +1867,7 @@
       <c r="B41" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +1878,7 @@
       <c r="B42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1880,7 +1889,7 @@
       <c r="B43" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1891,194 +1900,194 @@
       <c r="B44" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="7">
         <v>1</v>
       </c>
     </row>
@@ -2089,7 +2098,7 @@
       <c r="B62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2100,7 +2109,7 @@
       <c r="B63" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2120,7 @@
       <c r="B64" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2122,7 +2131,7 @@
       <c r="B65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2133,7 +2142,7 @@
       <c r="B66" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2144,7 +2153,7 @@
       <c r="B67" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2155,7 +2164,7 @@
       <c r="B68" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2166,7 +2175,7 @@
       <c r="B69" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2177,7 +2186,7 @@
       <c r="B70" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2188,7 +2197,7 @@
       <c r="B71" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2199,7 +2208,7 @@
       <c r="B72" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2210,7 +2219,7 @@
       <c r="B73" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2221,7 +2230,7 @@
       <c r="B74" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +2241,7 @@
       <c r="B75" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2243,7 +2252,7 @@
       <c r="B76" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2254,7 +2263,7 @@
       <c r="B77" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2265,601 +2274,601 @@
       <c r="B78" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C89" s="9">
+      <c r="C89" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C91" s="9">
+      <c r="C91" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C103" s="10">
+      <c r="C103" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C104" s="10">
+      <c r="C104" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C105" s="10">
+      <c r="C105" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C106" s="10">
+      <c r="C106" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C107" s="10">
+      <c r="C107" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C108" s="10">
+      <c r="C108" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="7">
+      <c r="C110" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="7">
+      <c r="C111" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="7">
+      <c r="C112" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="7">
+      <c r="C113" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="7">
+      <c r="C114" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C115" s="7">
+      <c r="C115" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="7">
+      <c r="C116" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C117" s="10">
+      <c r="C117" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C118" s="10">
+      <c r="C118" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="10">
+      <c r="C119" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C120" s="10">
+      <c r="C120" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
+      <c r="A121" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C121" s="10">
+      <c r="C121" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
+      <c r="A122" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C122" s="10">
+      <c r="C122" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
+      <c r="A123" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C123" s="10">
+      <c r="C123" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C124" s="10">
+      <c r="C124" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="10" t="s">
+      <c r="A125" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C125" s="10">
+      <c r="C125" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="10" t="s">
+      <c r="A126" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="10">
+      <c r="C126" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="10" t="s">
+      <c r="A127" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C127" s="10">
+      <c r="C127" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C128" s="10">
+      <c r="C128" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="10" t="s">
+      <c r="A129" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="10">
+      <c r="C129" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="10" t="s">
+      <c r="A130" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="10">
+      <c r="C130" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="10">
+      <c r="C131" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="10">
+      <c r="C132" s="9">
         <v>1</v>
       </c>
     </row>
@@ -2870,7 +2879,7 @@
       <c r="B133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C133" s="7">
+      <c r="C133" s="6">
         <v>1</v>
       </c>
     </row>
